--- a/molecular/data/real_6_smiles_yields_product_2_test.xlsx
+++ b/molecular/data/real_6_smiles_yields_product_2_test.xlsx
@@ -454,17 +454,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C=CC1=CC2=CC=CC=C2C=C1</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,27 +489,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ClC(CCC1=CC2=CC=CC=C2C=C1)(Cl)Cl</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NCC2=CC=CC3=C2C=CC=C3)=O)C=C1)OC</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C1=NC2=CC=CC=C2N1C</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,11 +534,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ClC(CCC1=CC=C(OC)C=C1)(Cl)C2=NC3=CC=CC=C3N2C</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -549,12 +549,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)N[C@@H](CC1=CN(C(OC(C)(C)C)=O)C2=C1C=CC=C2)C(OC)=O</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -579,11 +579,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)N[C@@H](CC2=CN(C(OC(C)(C)C)=O)C3=C2C=CC=C3)C(OC)=O</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -594,12 +594,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)OC1=CC2=CC=CC=C2C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -624,11 +624,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)OC2=CC3=CC=CC=C3C=C2</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -639,19 +639,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)OCCC1=CC=CC2=CC=CC=C21</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -669,11 +665,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)OCCC2=CC=CC3=CC=CC=C32</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -684,12 +680,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)C#N</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C=CC=C2)C2=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -699,7 +695,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -714,11 +710,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ClC(CCC1=CC=C(C=CC=C2)C2=C1)(Cl)C#N</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -729,12 +725,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)O[C@H](CCCCCC)C/C=C\CCCCCCCC(OCCCC)=O</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -759,27 +755,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCC1=CC=C(OC)C=C1)O[C@H](CCCCCC)C/C=C\CCCCCCCC(OCCCC)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C=CC1=CC(CC[C@]2([H])C3CC[C@@]4(C)[C@@]2([H])CCC4=O)=C3C=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -804,37 +800,33 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(Cl)CCC2=CC3=C(C=C2)C(CC[C@]4([C@]5(CCC4=O)[H])C)[C@@]5([H])CC3</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)Cl)=O</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C=CCOC1=CC(C)=CC=C1C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,22 +841,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CCOC(C(Cl)(Cl)CCCOC1=CC(C)=CC=C1C)=O</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -894,27 +886,27 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NCC2=C(C=CC=C3)C3=CC=C2</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=C2C(C=CC=N2)=CC=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C=CCOCCO</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -939,27 +931,27 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>O=C(C(CCCOCCO)(Cl)Cl)NC1=C2C(C=CC=N2)=CC=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=CC=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C=CCCC1=NC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -984,27 +976,27 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>O=C(C(CCCCC1=NC=CC=C1)(Cl)Cl)NC2=CC=CC=C2</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C=CCCCCCCC=C</t>
+          <t>C=CC1=CC=C(C=C1)C(OC)=O</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1029,27 +1021,27 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)CCCCCCCCC=C)NC1=CC=C(OC)C=C1</t>
+          <t>O=C(C1=CC=C(CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O)C=C1)OC</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=CC=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C1(C=CC=C2)=C2CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1064,7 +1056,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1074,22 +1066,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>O=C(C(C1CC(C=CC=C2)=C2C1)(Cl)Cl)NC3=CC=CC=C3</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=CC(C#N)=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,42 +1111,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>O=C(C(CCC1=CC=C(C)C=C1)(Cl)Cl)NC2=CC=CC(C#N)=C2</t>
+          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>[BH3-]C1=[N+](C)C=CN1C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCCCCCC=C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1164,37 +1152,33 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>C=CCCCCCCCCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C1COCCO1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1209,27 +1193,27 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1254,37 +1238,37 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[BH3-][N+]1=CC=CC=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1299,37 +1283,37 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[BH3-]C1=[N+](C)C=CN1C</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1337,14 +1321,18 @@
           <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SC1=CC=CC=C1</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -1355,17 +1343,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C=CC1=CC=CC=C1</t>
+          <t>C=CC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[OH2+][Na-3]1([OH2+])OP(O)(O)=[O+]1</t>
+          <t>[H]O[H]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1375,7 +1363,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1385,34 +1373,30 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FC1=CC=C(NC(C(Cl)(Cl)CCC2=CC=CC=C2)=O)C=C1</t>
+          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NCC1=C(C=CC=C2)C2=CC=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CCCOC(C)=O</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1430,7 +1414,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O=C(NCC1=CC=CC2=C1C=CC=C2)C(Cl)(CCC3=CC=C(C=C3)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1440,7 +1424,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1456,7 +1440,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1475,30 +1459,26 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CN(C)C1=CC=[N+]([BH2-]C#N)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
+          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>FC(C1=CC=CC=C1)(F)F</t>
@@ -1506,7 +1486,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1516,17 +1496,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)OC)=O</t>
+          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1539,10 +1519,14 @@
           <t>C=CC1=CC=C(C)C=C1</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>C1COCCO1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1561,13 +1545,13 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1587,7 +1571,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1606,23 +1590,23 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CN1C([BH2-]C#N)=[N+](C)C=C1</t>
+          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1637,7 +1621,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
+          <t>O=C(C1=CC=CC=C1)OOC(C2=CC=CC=C2)=O</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1647,11 +1631,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)OC)=O)=O</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1662,12 +1646,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1677,7 +1661,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1692,11 +1676,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)OC)=O)=O</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1707,18 +1691,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(OC)C=C1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>C=CC1=CC=C(C)C=C1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[H]O[H]</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
+          <t>CC1=CC=CC=C1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1733,11 +1721,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CC(OCCCCC(Cl)(Cl)Cl)=O</t>
+          <t>O=C(NC1=CC=C(C=C1)OC)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1748,18 +1736,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ClC(Cl)(Cl)Cl</t>
+          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
+          <t>C=CCCOC(C)=O</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>FC(C1=CC=CC=C1)(F)F</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1774,228 +1762,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
+          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(CCC1=CC=C(C=C1)C)Cl</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(OC)C=C1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>COC(C=C1)=CC=C1CCC(Cl)(Cl)C(NC2=CC=C(C=C2)F)=O</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>C=CCCOC(C)=O</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>CC(OCCCCC(Cl)(Cl)C(NC1=CC=C(C=C1)F)=O)=O</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>N#CC(C)(C)/N=N/C(C)(C)C#N</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CN(C)C1=CC=[N+]([BH3-])C=C1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>O=C(C(Cl)(Cl)Cl)NC1=CC=C(F)C=C1</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=C(C)C=C1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>[H]O[H]</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>FC(C1=CC=CC=C1)(F)F</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCC(OOC(CCCCCCCCCCC)=O)=O</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>SC1=CC=CC=C1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>O=C(NC1=CC=C(C=C1)F)C(Cl)(CCC2=CC=C(C=C2)C)Cl</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
